--- a/out/CE/FigA_16.xlsx
+++ b/out/CE/FigA_16.xlsx
@@ -382,133 +382,3367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237E8582-FF95-4AC3-81D8-F62353DD69B0}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:CW11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection sqref="A1:CW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.87128000000000005</v>
+        <v>0.87141999999999997</v>
       </c>
       <c r="B1">
-        <v>0.84653999999999996</v>
+        <v>0.88136000000000003</v>
       </c>
       <c r="C1">
-        <v>0.85891000000000006</v>
+        <v>0.86960000000000004</v>
+      </c>
+      <c r="D1">
+        <v>0.87126000000000003</v>
+      </c>
+      <c r="E1">
+        <v>0.86821999999999999</v>
+      </c>
+      <c r="F1">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="G1">
+        <v>0.86531999999999998</v>
+      </c>
+      <c r="H1">
+        <v>0.84419999999999995</v>
+      </c>
+      <c r="I1">
+        <v>0.87207999999999997</v>
+      </c>
+      <c r="J1">
+        <v>0.87926000000000004</v>
+      </c>
+      <c r="K1">
+        <v>0.88102000000000003</v>
+      </c>
+      <c r="L1">
+        <v>0.8619</v>
+      </c>
+      <c r="M1">
+        <v>0.86326000000000003</v>
+      </c>
+      <c r="N1">
+        <v>0.87019999999999997</v>
+      </c>
+      <c r="O1">
+        <v>0.87072000000000005</v>
+      </c>
+      <c r="P1">
+        <v>0.87592000000000003</v>
+      </c>
+      <c r="Q1">
+        <v>0.87980000000000003</v>
+      </c>
+      <c r="R1">
+        <v>0.86112</v>
+      </c>
+      <c r="S1">
+        <v>0.87753999999999999</v>
+      </c>
+      <c r="T1">
+        <v>0.86509999999999998</v>
+      </c>
+      <c r="U1">
+        <v>0.85768</v>
+      </c>
+      <c r="V1">
+        <v>0.88804000000000005</v>
+      </c>
+      <c r="W1">
+        <v>0.87587999999999999</v>
+      </c>
+      <c r="X1">
+        <v>0.86494000000000004</v>
+      </c>
+      <c r="Y1">
+        <v>0.87524000000000002</v>
+      </c>
+      <c r="Z1">
+        <v>0.86807999999999996</v>
+      </c>
+      <c r="AA1">
+        <v>0.86672000000000005</v>
+      </c>
+      <c r="AB1">
+        <v>0.87680000000000002</v>
+      </c>
+      <c r="AC1">
+        <v>0.86073999999999995</v>
+      </c>
+      <c r="AD1">
+        <v>0.84782000000000002</v>
+      </c>
+      <c r="AE1">
+        <v>0.85596000000000005</v>
+      </c>
+      <c r="AF1">
+        <v>0.87519999999999998</v>
+      </c>
+      <c r="AG1">
+        <v>0.85433999999999999</v>
+      </c>
+      <c r="AH1">
+        <v>0.85628000000000004</v>
+      </c>
+      <c r="AI1">
+        <v>0.87370000000000003</v>
+      </c>
+      <c r="AJ1">
+        <v>0.84114</v>
+      </c>
+      <c r="AK1">
+        <v>0.89507999999999999</v>
+      </c>
+      <c r="AL1">
+        <v>0.85129999999999995</v>
+      </c>
+      <c r="AM1">
+        <v>0.87275999999999998</v>
+      </c>
+      <c r="AN1">
+        <v>0.87356</v>
+      </c>
+      <c r="AO1">
+        <v>0.85145999999999999</v>
+      </c>
+      <c r="AP1">
+        <v>0.87475999999999998</v>
+      </c>
+      <c r="AQ1">
+        <v>0.86385999999999996</v>
+      </c>
+      <c r="AR1">
+        <v>0.85092000000000001</v>
+      </c>
+      <c r="AS1">
+        <v>0.88482000000000005</v>
+      </c>
+      <c r="AT1">
+        <v>0.85995999999999995</v>
+      </c>
+      <c r="AU1">
+        <v>0.86653999999999998</v>
+      </c>
+      <c r="AV1">
+        <v>0.86668000000000001</v>
+      </c>
+      <c r="AW1">
+        <v>0.88619999999999999</v>
+      </c>
+      <c r="AX1">
+        <v>0.88217999999999996</v>
+      </c>
+      <c r="AY1">
+        <v>0.86975999999999998</v>
+      </c>
+      <c r="AZ1">
+        <v>0.88004000000000004</v>
+      </c>
+      <c r="BA1">
+        <v>0.83460000000000001</v>
+      </c>
+      <c r="BB1">
+        <v>0.87036000000000002</v>
+      </c>
+      <c r="BC1">
+        <v>0.86787999999999998</v>
+      </c>
+      <c r="BD1">
+        <v>0.87248000000000003</v>
+      </c>
+      <c r="BE1">
+        <v>0.87187999999999999</v>
+      </c>
+      <c r="BF1">
+        <v>0.87849999999999995</v>
+      </c>
+      <c r="BG1">
+        <v>0.86563999999999997</v>
+      </c>
+      <c r="BH1">
+        <v>0.88526000000000005</v>
+      </c>
+      <c r="BI1">
+        <v>0.85958000000000001</v>
+      </c>
+      <c r="BJ1">
+        <v>0.85089999999999999</v>
+      </c>
+      <c r="BK1">
+        <v>0.872</v>
+      </c>
+      <c r="BL1">
+        <v>0.84989999999999999</v>
+      </c>
+      <c r="BM1">
+        <v>0.85795999999999994</v>
+      </c>
+      <c r="BN1">
+        <v>0.85521999999999998</v>
+      </c>
+      <c r="BO1">
+        <v>0.87553999999999998</v>
+      </c>
+      <c r="BP1">
+        <v>0.86051999999999995</v>
+      </c>
+      <c r="BQ1">
+        <v>0.84514</v>
+      </c>
+      <c r="BR1">
+        <v>0.85474000000000006</v>
+      </c>
+      <c r="BS1">
+        <v>0.86875999999999998</v>
+      </c>
+      <c r="BT1">
+        <v>0.83030000000000004</v>
+      </c>
+      <c r="BU1">
+        <v>0.84594000000000003</v>
+      </c>
+      <c r="BV1">
+        <v>0.86236000000000002</v>
+      </c>
+      <c r="BW1">
+        <v>0.86694000000000004</v>
+      </c>
+      <c r="BX1">
+        <v>0.88595999999999997</v>
+      </c>
+      <c r="BY1">
+        <v>0.88895999999999997</v>
+      </c>
+      <c r="BZ1">
+        <v>0.88460000000000005</v>
+      </c>
+      <c r="CA1">
+        <v>0.87860000000000005</v>
+      </c>
+      <c r="CB1">
+        <v>0.86448000000000003</v>
+      </c>
+      <c r="CC1">
+        <v>0.87056</v>
+      </c>
+      <c r="CD1">
+        <v>0.86917999999999995</v>
+      </c>
+      <c r="CE1">
+        <v>0.85904000000000003</v>
+      </c>
+      <c r="CF1">
+        <v>0.84823999999999999</v>
+      </c>
+      <c r="CG1">
+        <v>0.88639999999999997</v>
+      </c>
+      <c r="CH1">
+        <v>0.89514000000000005</v>
+      </c>
+      <c r="CI1">
+        <v>0.84953999999999996</v>
+      </c>
+      <c r="CJ1">
+        <v>0.88114000000000003</v>
+      </c>
+      <c r="CK1">
+        <v>0.87151999999999996</v>
+      </c>
+      <c r="CL1">
+        <v>0.85440000000000005</v>
+      </c>
+      <c r="CM1">
+        <v>0.87780000000000002</v>
+      </c>
+      <c r="CN1">
+        <v>0.84528000000000003</v>
+      </c>
+      <c r="CO1">
+        <v>0.88224000000000002</v>
+      </c>
+      <c r="CP1">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="CQ1">
+        <v>0.85904000000000003</v>
+      </c>
+      <c r="CR1">
+        <v>0.86460000000000004</v>
+      </c>
+      <c r="CS1">
+        <v>0.85596000000000005</v>
+      </c>
+      <c r="CT1">
+        <v>0.85116000000000003</v>
+      </c>
+      <c r="CU1">
+        <v>0.84543999999999997</v>
+      </c>
+      <c r="CV1">
+        <v>0.86921999999999999</v>
+      </c>
+      <c r="CW1">
+        <v>0.86664639999999982</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.88022</v>
+        <v>0.85809999999999997</v>
       </c>
       <c r="B2">
-        <v>0.86362000000000005</v>
+        <v>0.86684000000000005</v>
       </c>
       <c r="C2">
-        <v>0.87192000000000003</v>
+        <v>0.87778</v>
+      </c>
+      <c r="D2">
+        <v>0.85951999999999995</v>
+      </c>
+      <c r="E2">
+        <v>0.85362000000000005</v>
+      </c>
+      <c r="F2">
+        <v>0.88288</v>
+      </c>
+      <c r="G2">
+        <v>0.86412</v>
+      </c>
+      <c r="H2">
+        <v>0.87173999999999996</v>
+      </c>
+      <c r="I2">
+        <v>0.84053999999999995</v>
+      </c>
+      <c r="J2">
+        <v>0.86382000000000003</v>
+      </c>
+      <c r="K2">
+        <v>0.87219999999999998</v>
+      </c>
+      <c r="L2">
+        <v>0.87304000000000004</v>
+      </c>
+      <c r="M2">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="N2">
+        <v>0.87356</v>
+      </c>
+      <c r="O2">
+        <v>0.87883999999999995</v>
+      </c>
+      <c r="P2">
+        <v>0.86187999999999998</v>
+      </c>
+      <c r="Q2">
+        <v>0.86458000000000002</v>
+      </c>
+      <c r="R2">
+        <v>0.86495999999999995</v>
+      </c>
+      <c r="S2">
+        <v>0.88222</v>
+      </c>
+      <c r="T2">
+        <v>0.86312</v>
+      </c>
+      <c r="U2">
+        <v>0.86946000000000001</v>
+      </c>
+      <c r="V2">
+        <v>0.87214000000000003</v>
+      </c>
+      <c r="W2">
+        <v>0.85950000000000004</v>
+      </c>
+      <c r="X2">
+        <v>0.83964000000000005</v>
+      </c>
+      <c r="Y2">
+        <v>0.87378</v>
+      </c>
+      <c r="Z2">
+        <v>0.85743999999999998</v>
+      </c>
+      <c r="AA2">
+        <v>0.87717999999999996</v>
+      </c>
+      <c r="AB2">
+        <v>0.84392</v>
+      </c>
+      <c r="AC2">
+        <v>0.87105999999999995</v>
+      </c>
+      <c r="AD2">
+        <v>0.85785999999999996</v>
+      </c>
+      <c r="AE2">
+        <v>0.85318000000000005</v>
+      </c>
+      <c r="AF2">
+        <v>0.86916000000000004</v>
+      </c>
+      <c r="AG2">
+        <v>0.86950000000000005</v>
+      </c>
+      <c r="AH2">
+        <v>0.85943999999999998</v>
+      </c>
+      <c r="AI2">
+        <v>0.83374000000000004</v>
+      </c>
+      <c r="AJ2">
+        <v>0.87202000000000002</v>
+      </c>
+      <c r="AK2">
+        <v>0.85229999999999995</v>
+      </c>
+      <c r="AL2">
+        <v>0.87919999999999998</v>
+      </c>
+      <c r="AM2">
+        <v>0.86846000000000001</v>
+      </c>
+      <c r="AN2">
+        <v>0.87631999999999999</v>
+      </c>
+      <c r="AO2">
+        <v>0.87397999999999998</v>
+      </c>
+      <c r="AP2">
+        <v>0.8478</v>
+      </c>
+      <c r="AQ2">
+        <v>0.85873999999999995</v>
+      </c>
+      <c r="AR2">
+        <v>0.85721999999999998</v>
+      </c>
+      <c r="AS2">
+        <v>0.88207999999999998</v>
+      </c>
+      <c r="AT2">
+        <v>0.87258000000000002</v>
+      </c>
+      <c r="AU2">
+        <v>0.86068</v>
+      </c>
+      <c r="AV2">
+        <v>0.86516000000000004</v>
+      </c>
+      <c r="AW2">
+        <v>0.86812</v>
+      </c>
+      <c r="AX2">
+        <v>0.84055999999999997</v>
+      </c>
+      <c r="AY2">
+        <v>0.87021999999999999</v>
+      </c>
+      <c r="AZ2">
+        <v>0.86829999999999996</v>
+      </c>
+      <c r="BA2">
+        <v>0.87138000000000004</v>
+      </c>
+      <c r="BB2">
+        <v>0.87390000000000001</v>
+      </c>
+      <c r="BC2">
+        <v>0.87934000000000001</v>
+      </c>
+      <c r="BD2">
+        <v>0.86404000000000003</v>
+      </c>
+      <c r="BE2">
+        <v>0.85397999999999996</v>
+      </c>
+      <c r="BF2">
+        <v>0.87260000000000004</v>
+      </c>
+      <c r="BG2">
+        <v>0.87739999999999996</v>
+      </c>
+      <c r="BH2">
+        <v>0.85931999999999997</v>
+      </c>
+      <c r="BI2">
+        <v>0.86146</v>
+      </c>
+      <c r="BJ2">
+        <v>0.86577999999999999</v>
+      </c>
+      <c r="BK2">
+        <v>0.86280000000000001</v>
+      </c>
+      <c r="BL2">
+        <v>0.87217999999999996</v>
+      </c>
+      <c r="BM2">
+        <v>0.87609999999999999</v>
+      </c>
+      <c r="BN2">
+        <v>0.88060000000000005</v>
+      </c>
+      <c r="BO2">
+        <v>0.85116000000000003</v>
+      </c>
+      <c r="BP2">
+        <v>0.88580000000000003</v>
+      </c>
+      <c r="BQ2">
+        <v>0.86858000000000002</v>
+      </c>
+      <c r="BR2">
+        <v>0.86785999999999996</v>
+      </c>
+      <c r="BS2">
+        <v>0.86902000000000001</v>
+      </c>
+      <c r="BT2">
+        <v>0.86031999999999997</v>
+      </c>
+      <c r="BU2">
+        <v>0.88182000000000005</v>
+      </c>
+      <c r="BV2">
+        <v>0.87427999999999995</v>
+      </c>
+      <c r="BW2">
+        <v>0.84721999999999997</v>
+      </c>
+      <c r="BX2">
+        <v>0.86077999999999999</v>
+      </c>
+      <c r="BY2">
+        <v>0.87148000000000003</v>
+      </c>
+      <c r="BZ2">
+        <v>0.85716000000000003</v>
+      </c>
+      <c r="CA2">
+        <v>0.84241999999999995</v>
+      </c>
+      <c r="CB2">
+        <v>0.85585999999999995</v>
+      </c>
+      <c r="CC2">
+        <v>0.88593999999999995</v>
+      </c>
+      <c r="CD2">
+        <v>0.86604000000000003</v>
+      </c>
+      <c r="CE2">
+        <v>0.86706000000000005</v>
+      </c>
+      <c r="CF2">
+        <v>0.85938000000000003</v>
+      </c>
+      <c r="CG2">
+        <v>0.87722</v>
+      </c>
+      <c r="CH2">
+        <v>0.87263999999999997</v>
+      </c>
+      <c r="CI2">
+        <v>0.86953999999999998</v>
+      </c>
+      <c r="CJ2">
+        <v>0.87256</v>
+      </c>
+      <c r="CK2">
+        <v>0.85877999999999999</v>
+      </c>
+      <c r="CL2">
+        <v>0.86529999999999996</v>
+      </c>
+      <c r="CM2">
+        <v>0.87317999999999996</v>
+      </c>
+      <c r="CN2">
+        <v>0.87417999999999996</v>
+      </c>
+      <c r="CO2">
+        <v>0.85897999999999997</v>
+      </c>
+      <c r="CP2">
+        <v>0.87356</v>
+      </c>
+      <c r="CQ2">
+        <v>0.88034000000000001</v>
+      </c>
+      <c r="CR2">
+        <v>0.84965999999999997</v>
+      </c>
+      <c r="CS2">
+        <v>0.86002000000000001</v>
+      </c>
+      <c r="CT2">
+        <v>0.84467999999999999</v>
+      </c>
+      <c r="CU2">
+        <v>0.85987999999999998</v>
+      </c>
+      <c r="CV2">
+        <v>0.88693999999999995</v>
+      </c>
+      <c r="CW2">
+        <v>0.86584420000000017</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>0.87587999999999999</v>
+      </c>
+      <c r="B3">
+        <v>0.85911999999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.8528</v>
+      </c>
+      <c r="D3">
+        <v>0.85936000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.83486000000000005</v>
+      </c>
+      <c r="F3">
+        <v>0.83662000000000003</v>
+      </c>
+      <c r="G3">
+        <v>0.86797999999999997</v>
+      </c>
+      <c r="H3">
+        <v>0.82969999999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="J3">
+        <v>0.86839999999999995</v>
+      </c>
+      <c r="K3">
+        <v>0.87124000000000001</v>
+      </c>
+      <c r="L3">
+        <v>0.84675999999999996</v>
+      </c>
+      <c r="M3">
+        <v>0.85138000000000003</v>
+      </c>
+      <c r="N3">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="O3">
+        <v>0.87163999999999997</v>
+      </c>
+      <c r="P3">
+        <v>0.84589999999999999</v>
+      </c>
+      <c r="Q3">
+        <v>0.86951999999999996</v>
+      </c>
+      <c r="R3">
+        <v>0.83738000000000001</v>
+      </c>
+      <c r="S3">
+        <v>0.84345999999999999</v>
+      </c>
+      <c r="T3">
+        <v>0.85731999999999997</v>
+      </c>
+      <c r="U3">
+        <v>0.83687999999999996</v>
+      </c>
+      <c r="V3">
+        <v>0.85094000000000003</v>
+      </c>
+      <c r="W3">
+        <v>0.87624000000000002</v>
+      </c>
+      <c r="X3">
+        <v>0.85384000000000004</v>
+      </c>
+      <c r="Y3">
+        <v>0.85092000000000001</v>
+      </c>
+      <c r="Z3">
+        <v>0.86119999999999997</v>
+      </c>
+      <c r="AA3">
+        <v>0.86153999999999997</v>
+      </c>
+      <c r="AB3">
+        <v>0.85719999999999996</v>
+      </c>
+      <c r="AC3">
+        <v>0.87370000000000003</v>
+      </c>
+      <c r="AD3">
+        <v>0.87085999999999997</v>
+      </c>
+      <c r="AE3">
+        <v>0.87622</v>
+      </c>
+      <c r="AF3">
+        <v>0.85972000000000004</v>
+      </c>
+      <c r="AG3">
+        <v>0.86746000000000001</v>
+      </c>
+      <c r="AH3">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="AI3">
+        <v>0.86697999999999997</v>
+      </c>
+      <c r="AJ3">
+        <v>0.81938</v>
+      </c>
+      <c r="AK3">
+        <v>0.86643999999999999</v>
+      </c>
+      <c r="AL3">
+        <v>0.85507999999999995</v>
+      </c>
+      <c r="AM3">
+        <v>0.86485999999999996</v>
+      </c>
+      <c r="AN3">
+        <v>0.85626000000000002</v>
+      </c>
+      <c r="AO3">
+        <v>0.85440000000000005</v>
+      </c>
+      <c r="AP3">
+        <v>0.88334000000000001</v>
+      </c>
+      <c r="AQ3">
+        <v>0.85233999999999999</v>
+      </c>
+      <c r="AR3">
+        <v>0.85650000000000004</v>
+      </c>
+      <c r="AS3">
+        <v>0.85033999999999998</v>
+      </c>
+      <c r="AT3">
+        <v>0.85838000000000003</v>
+      </c>
+      <c r="AU3">
+        <v>0.87816000000000005</v>
+      </c>
+      <c r="AV3">
+        <v>0.86938000000000004</v>
+      </c>
+      <c r="AW3">
+        <v>0.84014</v>
+      </c>
+      <c r="AX3">
+        <v>0.86919999999999997</v>
+      </c>
+      <c r="AY3">
+        <v>0.8548</v>
+      </c>
+      <c r="AZ3">
+        <v>0.87819999999999998</v>
+      </c>
+      <c r="BA3">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="BB3">
+        <v>0.85411999999999999</v>
+      </c>
+      <c r="BC3">
+        <v>0.8669</v>
+      </c>
+      <c r="BD3">
+        <v>0.84331999999999996</v>
+      </c>
+      <c r="BE3">
+        <v>0.84262000000000004</v>
+      </c>
+      <c r="BF3">
+        <v>0.84997999999999996</v>
+      </c>
+      <c r="BG3">
+        <v>0.85626000000000002</v>
+      </c>
+      <c r="BH3">
+        <v>0.86541999999999997</v>
+      </c>
+      <c r="BI3">
+        <v>0.84231999999999996</v>
+      </c>
+      <c r="BJ3">
+        <v>0.84523999999999999</v>
+      </c>
+      <c r="BK3">
+        <v>0.85167999999999999</v>
+      </c>
+      <c r="BL3">
+        <v>0.83679999999999999</v>
+      </c>
+      <c r="BM3">
+        <v>0.84831999999999996</v>
+      </c>
+      <c r="BN3">
+        <v>0.83928000000000003</v>
+      </c>
+      <c r="BO3">
+        <v>0.86775999999999998</v>
+      </c>
+      <c r="BP3">
+        <v>0.86041999999999996</v>
+      </c>
+      <c r="BQ3">
+        <v>0.86114000000000002</v>
+      </c>
+      <c r="BR3">
+        <v>0.86092000000000002</v>
+      </c>
+      <c r="BS3">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="BT3">
+        <v>0.87316000000000005</v>
+      </c>
+      <c r="BU3">
+        <v>0.85677999999999999</v>
+      </c>
+      <c r="BV3">
+        <v>0.86048000000000002</v>
+      </c>
+      <c r="BW3">
+        <v>0.86785999999999996</v>
+      </c>
+      <c r="BX3">
+        <v>0.86024</v>
+      </c>
+      <c r="BY3">
+        <v>0.85153999999999996</v>
+      </c>
+      <c r="BZ3">
+        <v>0.87716000000000005</v>
+      </c>
+      <c r="CA3">
+        <v>0.86346000000000001</v>
+      </c>
+      <c r="CB3">
+        <v>0.87758000000000003</v>
+      </c>
+      <c r="CC3">
+        <v>0.84277999999999997</v>
+      </c>
+      <c r="CD3">
+        <v>0.86558000000000002</v>
+      </c>
+      <c r="CE3">
+        <v>0.83611999999999997</v>
+      </c>
+      <c r="CF3">
+        <v>0.87327999999999995</v>
+      </c>
+      <c r="CG3">
+        <v>0.85309999999999997</v>
+      </c>
+      <c r="CH3">
+        <v>0.85060000000000002</v>
+      </c>
+      <c r="CI3">
+        <v>0.86221999999999999</v>
+      </c>
+      <c r="CJ3">
+        <v>0.86929999999999996</v>
+      </c>
+      <c r="CK3">
+        <v>0.86048000000000002</v>
+      </c>
+      <c r="CL3">
+        <v>0.82323999999999997</v>
+      </c>
+      <c r="CM3">
+        <v>0.84687999999999997</v>
+      </c>
+      <c r="CN3">
+        <v>0.85794000000000004</v>
+      </c>
+      <c r="CO3">
+        <v>0.85965999999999998</v>
+      </c>
+      <c r="CP3">
+        <v>0.84733999999999998</v>
+      </c>
+      <c r="CQ3">
+        <v>0.85997999999999997</v>
+      </c>
+      <c r="CR3">
+        <v>0.87761999999999996</v>
+      </c>
+      <c r="CS3">
+        <v>0.86412</v>
+      </c>
+      <c r="CT3">
+        <v>0.84477999999999998</v>
+      </c>
+      <c r="CU3">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="CV3">
+        <v>0.86714000000000002</v>
+      </c>
+      <c r="CW3">
+        <v>0.85658439999999958</v>
+      </c>
+    </row>
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.87829999999999997</v>
+      </c>
+      <c r="B4">
+        <v>0.87019999999999997</v>
+      </c>
+      <c r="C4">
+        <v>0.84806000000000004</v>
+      </c>
+      <c r="D4">
+        <v>0.85894000000000004</v>
+      </c>
+      <c r="E4">
+        <v>0.84511999999999998</v>
+      </c>
+      <c r="F4">
+        <v>0.85336000000000001</v>
+      </c>
+      <c r="G4">
+        <v>0.8417</v>
+      </c>
+      <c r="H4">
+        <v>0.83911999999999998</v>
+      </c>
+      <c r="I4">
+        <v>0.84497999999999995</v>
+      </c>
+      <c r="J4">
+        <v>0.83962000000000003</v>
+      </c>
+      <c r="K4">
+        <v>0.84011999999999998</v>
+      </c>
+      <c r="L4">
+        <v>0.84996000000000005</v>
+      </c>
+      <c r="M4">
+        <v>0.85589999999999999</v>
+      </c>
+      <c r="N4">
+        <v>0.84816000000000003</v>
+      </c>
+      <c r="O4">
+        <v>0.87385999999999997</v>
+      </c>
+      <c r="P4">
+        <v>0.84882000000000002</v>
+      </c>
+      <c r="Q4">
+        <v>0.87136000000000002</v>
+      </c>
+      <c r="R4">
+        <v>0.86180000000000001</v>
+      </c>
+      <c r="S4">
+        <v>0.86148000000000002</v>
+      </c>
+      <c r="T4">
+        <v>0.86551999999999996</v>
+      </c>
+      <c r="U4">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="V4">
+        <v>0.84148000000000001</v>
+      </c>
+      <c r="W4">
+        <v>0.87394000000000005</v>
+      </c>
+      <c r="X4">
+        <v>0.86243999999999998</v>
+      </c>
+      <c r="Y4">
+        <v>0.83616000000000001</v>
+      </c>
+      <c r="Z4">
+        <v>0.85629999999999995</v>
+      </c>
+      <c r="AA4">
+        <v>0.86092000000000002</v>
+      </c>
+      <c r="AB4">
+        <v>0.83755999999999997</v>
+      </c>
+      <c r="AC4">
+        <v>0.86282000000000003</v>
+      </c>
+      <c r="AD4">
+        <v>0.85238000000000003</v>
+      </c>
+      <c r="AE4">
+        <v>0.85984000000000005</v>
+      </c>
+      <c r="AF4">
+        <v>0.84304000000000001</v>
+      </c>
+      <c r="AG4">
+        <v>0.87487999999999999</v>
+      </c>
+      <c r="AH4">
+        <v>0.85155999999999998</v>
+      </c>
+      <c r="AI4">
+        <v>0.86314000000000002</v>
+      </c>
+      <c r="AJ4">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="AK4">
+        <v>0.86385999999999996</v>
+      </c>
+      <c r="AL4">
+        <v>0.86038000000000003</v>
+      </c>
+      <c r="AM4">
+        <v>0.86836000000000002</v>
+      </c>
+      <c r="AN4">
+        <v>0.85382000000000002</v>
+      </c>
+      <c r="AO4">
+        <v>0.83696000000000004</v>
+      </c>
+      <c r="AP4">
+        <v>0.85575999999999997</v>
+      </c>
+      <c r="AQ4">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="AR4">
+        <v>0.87531999999999999</v>
+      </c>
+      <c r="AS4">
+        <v>0.86697999999999997</v>
+      </c>
+      <c r="AT4">
+        <v>0.85611999999999999</v>
+      </c>
+      <c r="AU4">
+        <v>0.82554000000000005</v>
+      </c>
+      <c r="AV4">
+        <v>0.86070000000000002</v>
+      </c>
+      <c r="AW4">
+        <v>0.85351999999999995</v>
+      </c>
+      <c r="AX4">
+        <v>0.84018000000000004</v>
+      </c>
+      <c r="AY4">
+        <v>0.84787999999999997</v>
+      </c>
+      <c r="AZ4">
+        <v>0.87151999999999996</v>
+      </c>
+      <c r="BA4">
+        <v>0.85428000000000004</v>
+      </c>
+      <c r="BB4">
+        <v>0.85543999999999998</v>
+      </c>
+      <c r="BC4">
+        <v>0.88285999999999998</v>
+      </c>
+      <c r="BD4">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="BE4">
+        <v>0.86692000000000002</v>
+      </c>
+      <c r="BF4">
+        <v>0.82784000000000002</v>
+      </c>
+      <c r="BG4">
+        <v>0.86431999999999998</v>
+      </c>
+      <c r="BH4">
+        <v>0.86019999999999996</v>
+      </c>
+      <c r="BI4">
+        <v>0.85904000000000003</v>
+      </c>
+      <c r="BJ4">
+        <v>0.84743999999999997</v>
+      </c>
+      <c r="BK4">
+        <v>0.87804000000000004</v>
+      </c>
+      <c r="BL4">
+        <v>0.85474000000000006</v>
+      </c>
+      <c r="BM4">
+        <v>0.84040000000000004</v>
+      </c>
+      <c r="BN4">
+        <v>0.82094</v>
+      </c>
+      <c r="BO4">
+        <v>0.86982000000000004</v>
+      </c>
+      <c r="BP4">
+        <v>0.86958000000000002</v>
+      </c>
+      <c r="BQ4">
+        <v>0.83731999999999995</v>
+      </c>
+      <c r="BR4">
+        <v>0.84050000000000002</v>
+      </c>
+      <c r="BS4">
+        <v>0.85441999999999996</v>
+      </c>
+      <c r="BT4">
+        <v>0.83530000000000004</v>
+      </c>
+      <c r="BU4">
+        <v>0.86606000000000005</v>
+      </c>
+      <c r="BV4">
+        <v>0.82706000000000002</v>
+      </c>
+      <c r="BW4">
+        <v>0.85343999999999998</v>
+      </c>
+      <c r="BX4">
+        <v>0.84836</v>
+      </c>
+      <c r="BY4">
+        <v>0.86168</v>
+      </c>
+      <c r="BZ4">
+        <v>0.87778</v>
+      </c>
+      <c r="CA4">
+        <v>0.86778</v>
+      </c>
+      <c r="CB4">
+        <v>0.84370000000000001</v>
+      </c>
+      <c r="CC4">
+        <v>0.86017999999999994</v>
+      </c>
+      <c r="CD4">
+        <v>0.83164000000000005</v>
+      </c>
+      <c r="CE4">
+        <v>0.87846000000000002</v>
+      </c>
+      <c r="CF4">
+        <v>0.86040000000000005</v>
+      </c>
+      <c r="CG4">
+        <v>0.84153999999999995</v>
+      </c>
+      <c r="CH4">
+        <v>0.86841999999999997</v>
+      </c>
+      <c r="CI4">
+        <v>0.86009999999999998</v>
+      </c>
+      <c r="CJ4">
+        <v>0.84889999999999999</v>
+      </c>
+      <c r="CK4">
+        <v>0.86948000000000003</v>
+      </c>
+      <c r="CL4">
+        <v>0.86234</v>
+      </c>
+      <c r="CM4">
+        <v>0.87090000000000001</v>
+      </c>
+      <c r="CN4">
+        <v>0.87317999999999996</v>
+      </c>
+      <c r="CO4">
+        <v>0.87995999999999996</v>
+      </c>
+      <c r="CP4">
+        <v>0.86012</v>
+      </c>
+      <c r="CQ4">
+        <v>0.86772000000000005</v>
+      </c>
+      <c r="CR4">
+        <v>0.87824000000000002</v>
+      </c>
+      <c r="CS4">
+        <v>0.84092</v>
+      </c>
+      <c r="CT4">
+        <v>0.85092000000000001</v>
+      </c>
+      <c r="CU4">
+        <v>0.86558000000000002</v>
+      </c>
+      <c r="CV4">
+        <v>0.84889999999999999</v>
+      </c>
+      <c r="CW4">
+        <v>0.85568899999999981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.85236000000000001</v>
+      </c>
+      <c r="B5">
+        <v>0.86534</v>
+      </c>
+      <c r="C5">
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="D5">
+        <v>0.8417</v>
+      </c>
+      <c r="E5">
+        <v>0.83004</v>
+      </c>
+      <c r="F5">
+        <v>0.83616000000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.86563999999999997</v>
+      </c>
+      <c r="H5">
+        <v>0.86112</v>
+      </c>
+      <c r="I5">
+        <v>0.87597999999999998</v>
+      </c>
+      <c r="J5">
+        <v>0.82135999999999998</v>
+      </c>
+      <c r="K5">
+        <v>0.85636000000000001</v>
+      </c>
+      <c r="L5">
+        <v>0.83504</v>
+      </c>
+      <c r="M5">
+        <v>0.83479999999999999</v>
+      </c>
+      <c r="N5">
+        <v>0.86694000000000004</v>
+      </c>
+      <c r="O5">
+        <v>0.82150000000000001</v>
+      </c>
+      <c r="P5">
+        <v>0.83645999999999998</v>
+      </c>
+      <c r="Q5">
+        <v>0.85938000000000003</v>
+      </c>
+      <c r="R5">
+        <v>0.84589999999999999</v>
+      </c>
+      <c r="S5">
+        <v>0.84621999999999997</v>
+      </c>
+      <c r="T5">
+        <v>0.85309999999999997</v>
+      </c>
+      <c r="U5">
+        <v>0.84033999999999998</v>
+      </c>
+      <c r="V5">
+        <v>0.85216000000000003</v>
+      </c>
+      <c r="W5">
+        <v>0.86819999999999997</v>
+      </c>
+      <c r="X5">
+        <v>0.84570000000000001</v>
+      </c>
+      <c r="Y5">
+        <v>0.84119999999999995</v>
+      </c>
+      <c r="Z5">
+        <v>0.87073999999999996</v>
+      </c>
+      <c r="AA5">
+        <v>0.85736000000000001</v>
+      </c>
+      <c r="AB5">
+        <v>0.85894000000000004</v>
+      </c>
+      <c r="AC5">
+        <v>0.86460000000000004</v>
+      </c>
+      <c r="AD5">
+        <v>0.86028000000000004</v>
+      </c>
+      <c r="AE5">
+        <v>0.85128000000000004</v>
+      </c>
+      <c r="AF5">
+        <v>0.85319999999999996</v>
+      </c>
+      <c r="AG5">
+        <v>0.84128000000000003</v>
+      </c>
+      <c r="AH5">
+        <v>0.83882000000000001</v>
+      </c>
+      <c r="AI5">
+        <v>0.8448</v>
+      </c>
+      <c r="AJ5">
+        <v>0.84709999999999996</v>
+      </c>
+      <c r="AK5">
+        <v>0.85358000000000001</v>
+      </c>
+      <c r="AL5">
+        <v>0.86436000000000002</v>
+      </c>
+      <c r="AM5">
+        <v>0.85418000000000005</v>
+      </c>
+      <c r="AN5">
+        <v>0.82950000000000002</v>
+      </c>
+      <c r="AO5">
+        <v>0.86350000000000005</v>
+      </c>
+      <c r="AP5">
+        <v>0.84011999999999998</v>
+      </c>
+      <c r="AQ5">
+        <v>0.85428000000000004</v>
+      </c>
+      <c r="AR5">
+        <v>0.86121999999999999</v>
+      </c>
+      <c r="AS5">
+        <v>0.85406000000000004</v>
+      </c>
+      <c r="AT5">
+        <v>0.84985999999999995</v>
+      </c>
+      <c r="AU5">
+        <v>0.87424000000000002</v>
+      </c>
+      <c r="AV5">
+        <v>0.86995999999999996</v>
+      </c>
+      <c r="AW5">
+        <v>0.84885999999999995</v>
+      </c>
+      <c r="AX5">
+        <v>0.85972000000000004</v>
+      </c>
+      <c r="AY5">
+        <v>0.85353999999999997</v>
+      </c>
+      <c r="AZ5">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="BA5">
+        <v>0.85494000000000003</v>
+      </c>
+      <c r="BB5">
+        <v>0.84758</v>
+      </c>
+      <c r="BC5">
+        <v>0.8246</v>
+      </c>
+      <c r="BD5">
+        <v>0.84243999999999997</v>
+      </c>
+      <c r="BE5">
+        <v>0.82687999999999995</v>
+      </c>
+      <c r="BF5">
+        <v>0.86336000000000002</v>
+      </c>
+      <c r="BG5">
+        <v>0.86507999999999996</v>
+      </c>
+      <c r="BH5">
+        <v>0.84394000000000002</v>
+      </c>
+      <c r="BI5">
+        <v>0.83906000000000003</v>
+      </c>
+      <c r="BJ5">
+        <v>0.83720000000000006</v>
+      </c>
+      <c r="BK5">
+        <v>0.86180000000000001</v>
+      </c>
+      <c r="BL5">
+        <v>0.85706000000000004</v>
+      </c>
+      <c r="BM5">
+        <v>0.83545999999999998</v>
+      </c>
+      <c r="BN5">
+        <v>0.82940000000000003</v>
+      </c>
+      <c r="BO5">
+        <v>0.84652000000000005</v>
+      </c>
+      <c r="BP5">
+        <v>0.85416000000000003</v>
+      </c>
+      <c r="BQ5">
+        <v>0.87583999999999995</v>
+      </c>
+      <c r="BR5">
+        <v>0.8458</v>
+      </c>
+      <c r="BS5">
+        <v>0.83101999999999998</v>
+      </c>
+      <c r="BT5">
+        <v>0.86248000000000002</v>
+      </c>
+      <c r="BU5">
+        <v>0.82721999999999996</v>
+      </c>
+      <c r="BV5">
+        <v>0.83914</v>
+      </c>
+      <c r="BW5">
+        <v>0.85241999999999996</v>
+      </c>
+      <c r="BX5">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="BY5">
+        <v>0.85167999999999999</v>
+      </c>
+      <c r="BZ5">
+        <v>0.84641999999999995</v>
+      </c>
+      <c r="CA5">
+        <v>0.82213999999999998</v>
+      </c>
+      <c r="CB5">
+        <v>0.85868</v>
+      </c>
+      <c r="CC5">
+        <v>0.84550000000000003</v>
+      </c>
+      <c r="CD5">
+        <v>0.83992</v>
+      </c>
+      <c r="CE5">
+        <v>0.85160000000000002</v>
+      </c>
+      <c r="CF5">
+        <v>0.85509999999999997</v>
+      </c>
+      <c r="CG5">
+        <v>0.84143999999999997</v>
+      </c>
+      <c r="CH5">
+        <v>0.84974000000000005</v>
+      </c>
+      <c r="CI5">
+        <v>0.83720000000000006</v>
+      </c>
+      <c r="CJ5">
+        <v>0.84545999999999999</v>
+      </c>
+      <c r="CK5">
+        <v>0.84884000000000004</v>
+      </c>
+      <c r="CL5">
+        <v>0.82838000000000001</v>
+      </c>
+      <c r="CM5">
+        <v>0.84040000000000004</v>
+      </c>
+      <c r="CN5">
+        <v>0.83882000000000001</v>
+      </c>
+      <c r="CO5">
+        <v>0.85377999999999998</v>
+      </c>
+      <c r="CP5">
+        <v>0.83004</v>
+      </c>
+      <c r="CQ5">
+        <v>0.84640000000000004</v>
+      </c>
+      <c r="CR5">
+        <v>0.84985999999999995</v>
+      </c>
+      <c r="CS5">
+        <v>0.84689999999999999</v>
+      </c>
+      <c r="CT5">
+        <v>0.86650000000000005</v>
+      </c>
+      <c r="CU5">
+        <v>0.84909999999999997</v>
+      </c>
+      <c r="CV5">
+        <v>0.83113999999999999</v>
+      </c>
+      <c r="CW5">
+        <v>0.84858320000000054</v>
+      </c>
+    </row>
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.85631999999999997</v>
+      </c>
+      <c r="B6">
+        <v>0.84906000000000004</v>
+      </c>
+      <c r="C6">
+        <v>0.86236000000000002</v>
+      </c>
+      <c r="D6">
+        <v>0.82740000000000002</v>
+      </c>
+      <c r="E6">
+        <v>0.86514000000000002</v>
+      </c>
+      <c r="F6">
+        <v>0.86819999999999997</v>
+      </c>
+      <c r="G6">
+        <v>0.84328000000000003</v>
+      </c>
+      <c r="H6">
+        <v>0.84465999999999997</v>
+      </c>
+      <c r="I6">
+        <v>0.85704000000000002</v>
+      </c>
+      <c r="J6">
+        <v>0.84765999999999997</v>
+      </c>
+      <c r="K6">
+        <v>0.85828000000000004</v>
+      </c>
+      <c r="L6">
+        <v>0.84097999999999995</v>
+      </c>
+      <c r="M6">
+        <v>0.81032000000000004</v>
+      </c>
+      <c r="N6">
+        <v>0.85367999999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.86997999999999998</v>
+      </c>
+      <c r="P6">
+        <v>0.85196000000000005</v>
+      </c>
+      <c r="Q6">
+        <v>0.84753999999999996</v>
+      </c>
+      <c r="R6">
+        <v>0.85426000000000002</v>
+      </c>
+      <c r="S6">
+        <v>0.85902000000000001</v>
+      </c>
+      <c r="T6">
+        <v>0.86509999999999998</v>
+      </c>
+      <c r="U6">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="V6">
+        <v>0.84887999999999997</v>
+      </c>
+      <c r="W6">
+        <v>0.86092000000000002</v>
+      </c>
+      <c r="X6">
+        <v>0.86716000000000004</v>
+      </c>
+      <c r="Y6">
+        <v>0.83892</v>
+      </c>
+      <c r="Z6">
+        <v>0.85911999999999999</v>
+      </c>
+      <c r="AA6">
+        <v>0.84223999999999999</v>
+      </c>
+      <c r="AB6">
+        <v>0.84784000000000004</v>
+      </c>
+      <c r="AC6">
+        <v>0.85319999999999996</v>
+      </c>
+      <c r="AD6">
+        <v>0.85287999999999997</v>
+      </c>
+      <c r="AE6">
+        <v>0.85829999999999995</v>
+      </c>
+      <c r="AF6">
+        <v>0.85251999999999994</v>
+      </c>
+      <c r="AG6">
+        <v>0.84074000000000004</v>
+      </c>
+      <c r="AH6">
+        <v>0.81386000000000003</v>
+      </c>
+      <c r="AI6">
+        <v>0.86914000000000002</v>
+      </c>
+      <c r="AJ6">
+        <v>0.81774000000000002</v>
+      </c>
+      <c r="AK6">
+        <v>0.85348000000000002</v>
+      </c>
+      <c r="AL6">
+        <v>0.84767999999999999</v>
+      </c>
+      <c r="AM6">
+        <v>0.84989999999999999</v>
+      </c>
+      <c r="AN6">
+        <v>0.83111999999999997</v>
+      </c>
+      <c r="AO6">
+        <v>0.85219</v>
+      </c>
+      <c r="AP6">
+        <v>0.85243999999999998</v>
+      </c>
+      <c r="AQ6">
+        <v>0.84484000000000004</v>
+      </c>
+      <c r="AR6">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="AS6">
+        <v>0.83548</v>
+      </c>
+      <c r="AT6">
+        <v>0.84796000000000005</v>
+      </c>
+      <c r="AU6">
+        <v>0.84496000000000004</v>
+      </c>
+      <c r="AV6">
+        <v>0.86024</v>
+      </c>
+      <c r="AW6">
+        <v>0.85804000000000002</v>
+      </c>
+      <c r="AX6">
+        <v>0.86434</v>
+      </c>
+      <c r="AY6">
+        <v>0.86126000000000003</v>
+      </c>
+      <c r="AZ6">
+        <v>0.85477999999999998</v>
+      </c>
+      <c r="BA6">
+        <v>0.86355999999999999</v>
+      </c>
+      <c r="BB6">
+        <v>0.82709999999999995</v>
+      </c>
+      <c r="BC6">
+        <v>0.86373999999999995</v>
+      </c>
+      <c r="BD6">
+        <v>0.85238000000000003</v>
+      </c>
+      <c r="BE6">
+        <v>0.82794000000000001</v>
+      </c>
+      <c r="BF6">
+        <v>0.85785999999999996</v>
+      </c>
+      <c r="BG6">
+        <v>0.85392000000000001</v>
+      </c>
+      <c r="BH6">
+        <v>0.86717999999999995</v>
+      </c>
+      <c r="BI6">
+        <v>0.83562000000000003</v>
+      </c>
+      <c r="BJ6">
+        <v>0.85538000000000003</v>
+      </c>
+      <c r="BK6">
+        <v>0.84267999999999998</v>
+      </c>
+      <c r="BL6">
+        <v>0.83604000000000001</v>
+      </c>
+      <c r="BM6">
+        <v>0.86087999999999998</v>
+      </c>
+      <c r="BN6">
+        <v>0.85433999999999999</v>
+      </c>
+      <c r="BO6">
+        <v>0.85309999999999997</v>
+      </c>
+      <c r="BP6">
+        <v>0.82489999999999997</v>
+      </c>
+      <c r="BQ6">
+        <v>0.84819999999999995</v>
+      </c>
+      <c r="BR6">
+        <v>0.84828000000000003</v>
+      </c>
+      <c r="BS6">
+        <v>0.84928000000000003</v>
+      </c>
+      <c r="BT6">
+        <v>0.87121999999999999</v>
+      </c>
+      <c r="BU6">
+        <v>0.84048</v>
+      </c>
+      <c r="BV6">
+        <v>0.84516000000000002</v>
+      </c>
+      <c r="BW6">
+        <v>0.85670000000000002</v>
+      </c>
+      <c r="BX6">
+        <v>0.83914</v>
+      </c>
+      <c r="BY6">
+        <v>0.83530000000000004</v>
+      </c>
+      <c r="BZ6">
+        <v>0.86372000000000004</v>
+      </c>
+      <c r="CA6">
+        <v>0.84841999999999995</v>
+      </c>
+      <c r="CB6">
+        <v>0.85972000000000004</v>
+      </c>
+      <c r="CC6">
+        <v>0.85251999999999994</v>
+      </c>
+      <c r="CD6">
+        <v>0.84833999999999998</v>
+      </c>
+      <c r="CE6">
+        <v>0.84186000000000005</v>
+      </c>
+      <c r="CF6">
+        <v>0.81488000000000005</v>
+      </c>
+      <c r="CG6">
+        <v>0.85263999999999995</v>
+      </c>
+      <c r="CH6">
+        <v>0.85255999999999998</v>
+      </c>
+      <c r="CI6">
+        <v>0.86055999999999999</v>
+      </c>
+      <c r="CJ6">
+        <v>0.84838000000000002</v>
+      </c>
+      <c r="CK6">
+        <v>0.84967999999999999</v>
+      </c>
+      <c r="CL6">
+        <v>0.85021999999999998</v>
+      </c>
+      <c r="CM6">
+        <v>0.87450000000000006</v>
+      </c>
+      <c r="CN6">
+        <v>0.85411999999999999</v>
+      </c>
+      <c r="CO6">
+        <v>0.84911999999999999</v>
+      </c>
+      <c r="CP6">
+        <v>0.85241999999999996</v>
+      </c>
+      <c r="CQ6">
+        <v>0.85972000000000004</v>
+      </c>
+      <c r="CR6">
+        <v>0.86748000000000003</v>
+      </c>
+      <c r="CS6">
+        <v>0.81542000000000003</v>
+      </c>
+      <c r="CT6">
+        <v>0.86316000000000004</v>
+      </c>
+      <c r="CU6">
+        <v>0.85282000000000002</v>
+      </c>
+      <c r="CV6">
+        <v>0.83655999999999997</v>
+      </c>
+      <c r="CW6">
+        <v>0.85020109999999971</v>
+      </c>
+    </row>
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.82662000000000002</v>
+      </c>
+      <c r="B7">
+        <v>0.85443999999999998</v>
+      </c>
+      <c r="C7">
+        <v>0.83950000000000002</v>
+      </c>
+      <c r="D7">
+        <v>0.85118000000000005</v>
+      </c>
+      <c r="E7">
+        <v>0.85128000000000004</v>
+      </c>
+      <c r="F7">
+        <v>0.81366000000000005</v>
+      </c>
+      <c r="G7">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="H7">
+        <v>0.84689999999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.85240000000000005</v>
+      </c>
+      <c r="J7">
+        <v>0.84574000000000005</v>
+      </c>
+      <c r="K7">
+        <v>0.82550000000000001</v>
+      </c>
+      <c r="L7">
+        <v>0.86112</v>
+      </c>
+      <c r="M7">
+        <v>0.84172000000000002</v>
+      </c>
+      <c r="N7">
+        <v>0.84328000000000003</v>
+      </c>
+      <c r="O7">
+        <v>0.85948000000000002</v>
+      </c>
+      <c r="P7">
+        <v>0.85097999999999996</v>
+      </c>
+      <c r="Q7">
+        <v>0.83877999999999997</v>
+      </c>
+      <c r="R7">
+        <v>0.85882000000000003</v>
+      </c>
+      <c r="S7">
+        <v>0.82743999999999995</v>
+      </c>
+      <c r="T7">
+        <v>0.83340000000000003</v>
+      </c>
+      <c r="U7">
+        <v>0.81738</v>
+      </c>
+      <c r="V7">
+        <v>0.83345999999999998</v>
+      </c>
+      <c r="W7">
+        <v>0.84353999999999996</v>
+      </c>
+      <c r="X7">
+        <v>0.84384000000000003</v>
+      </c>
+      <c r="Y7">
+        <v>0.8145</v>
+      </c>
+      <c r="Z7">
+        <v>0.85485999999999995</v>
+      </c>
+      <c r="AA7">
+        <v>0.83752000000000004</v>
+      </c>
+      <c r="AB7">
+        <v>0.85760000000000003</v>
+      </c>
+      <c r="AC7">
+        <v>0.83287999999999995</v>
+      </c>
+      <c r="AD7">
+        <v>0.86062000000000005</v>
+      </c>
+      <c r="AE7">
+        <v>0.87797999999999998</v>
+      </c>
+      <c r="AF7">
+        <v>0.85185999999999995</v>
+      </c>
+      <c r="AG7">
+        <v>0.82586000000000004</v>
+      </c>
+      <c r="AH7">
+        <v>0.85053999999999996</v>
+      </c>
+      <c r="AI7">
+        <v>0.83972000000000002</v>
+      </c>
+      <c r="AJ7">
+        <v>0.85474000000000006</v>
+      </c>
+      <c r="AK7">
+        <v>0.8478</v>
+      </c>
+      <c r="AL7">
+        <v>0.84941999999999995</v>
+      </c>
+      <c r="AM7">
+        <v>0.86094000000000004</v>
+      </c>
+      <c r="AN7">
+        <v>0.82886000000000004</v>
+      </c>
+      <c r="AO7">
+        <v>0.83020000000000005</v>
+      </c>
+      <c r="AP7">
+        <v>0.85148000000000001</v>
+      </c>
+      <c r="AQ7">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="AR7">
+        <v>0.81469999999999998</v>
+      </c>
+      <c r="AS7">
+        <v>0.86758000000000002</v>
+      </c>
+      <c r="AT7">
+        <v>0.84597999999999995</v>
+      </c>
+      <c r="AU7">
+        <v>0.85506000000000004</v>
+      </c>
+      <c r="AV7">
+        <v>0.85367999999999999</v>
+      </c>
+      <c r="AW7">
+        <v>0.83548</v>
+      </c>
+      <c r="AX7">
+        <v>0.86607999999999996</v>
+      </c>
+      <c r="AY7">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="AZ7">
+        <v>0.85541999999999996</v>
+      </c>
+      <c r="BA7">
+        <v>0.85584000000000005</v>
+      </c>
+      <c r="BB7">
+        <v>0.85582000000000003</v>
+      </c>
+      <c r="BC7">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="BD7">
+        <v>0.83375999999999995</v>
+      </c>
+      <c r="BE7">
+        <v>0.83401999999999998</v>
+      </c>
+      <c r="BF7">
+        <v>0.85311999999999999</v>
+      </c>
+      <c r="BG7">
+        <v>0.83289999999999997</v>
+      </c>
+      <c r="BH7">
+        <v>0.82876000000000005</v>
+      </c>
+      <c r="BI7">
+        <v>0.85638000000000003</v>
+      </c>
+      <c r="BJ7">
+        <v>0.83067999999999997</v>
+      </c>
+      <c r="BK7">
+        <v>0.84245999999999999</v>
+      </c>
+      <c r="BL7">
+        <v>0.84011999999999998</v>
+      </c>
+      <c r="BM7">
+        <v>0.84236</v>
+      </c>
+      <c r="BN7">
+        <v>0.84874000000000005</v>
+      </c>
+      <c r="BO7">
+        <v>0.85143999999999997</v>
+      </c>
+      <c r="BP7">
+        <v>0.80879999999999996</v>
+      </c>
+      <c r="BQ7">
+        <v>0.83986000000000005</v>
+      </c>
+      <c r="BR7">
+        <v>0.86785999999999996</v>
+      </c>
+      <c r="BS7">
+        <v>0.85936000000000001</v>
+      </c>
+      <c r="BT7">
+        <v>0.84074000000000004</v>
+      </c>
+      <c r="BU7">
+        <v>0.81366000000000005</v>
+      </c>
+      <c r="BV7">
+        <v>0.85409999999999997</v>
+      </c>
+      <c r="BW7">
+        <v>0.83374000000000004</v>
+      </c>
+      <c r="BX7">
+        <v>0.83340000000000003</v>
+      </c>
+      <c r="BY7">
+        <v>0.85116000000000003</v>
+      </c>
+      <c r="BZ7">
+        <v>0.85170000000000001</v>
+      </c>
+      <c r="CA7">
+        <v>0.83819999999999995</v>
+      </c>
+      <c r="CB7">
+        <v>0.85721999999999998</v>
+      </c>
+      <c r="CC7">
+        <v>0.81598000000000004</v>
+      </c>
+      <c r="CD7">
+        <v>0.85260000000000002</v>
+      </c>
+      <c r="CE7">
+        <v>0.86868000000000001</v>
+      </c>
+      <c r="CF7">
+        <v>0.82242000000000004</v>
+      </c>
+      <c r="CG7">
+        <v>0.87172000000000005</v>
+      </c>
+      <c r="CH7">
+        <v>0.84582000000000002</v>
+      </c>
+      <c r="CI7">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="CJ7">
+        <v>0.84038000000000002</v>
+      </c>
+      <c r="CK7">
+        <v>0.84814000000000001</v>
+      </c>
+      <c r="CL7">
+        <v>0.86372000000000004</v>
+      </c>
+      <c r="CM7">
+        <v>0.84064000000000005</v>
+      </c>
+      <c r="CN7">
+        <v>0.85153999999999996</v>
+      </c>
+      <c r="CO7">
+        <v>0.84192</v>
+      </c>
+      <c r="CP7">
+        <v>0.86119999999999997</v>
+      </c>
+      <c r="CQ7">
+        <v>0.82277999999999996</v>
+      </c>
+      <c r="CR7">
+        <v>0.84287999999999996</v>
+      </c>
+      <c r="CS7">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="CT7">
+        <v>0.83094000000000001</v>
+      </c>
+      <c r="CU7">
+        <v>0.83320000000000005</v>
+      </c>
+      <c r="CV7">
+        <v>0.83443999999999996</v>
+      </c>
+      <c r="CW7">
+        <v>0.84442719999999927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.84511999999999998</v>
+      </c>
+      <c r="B8">
+        <v>0.84031999999999996</v>
+      </c>
+      <c r="C8">
+        <v>0.84492</v>
+      </c>
+      <c r="D8">
+        <v>0.85841999999999996</v>
+      </c>
+      <c r="E8">
+        <v>0.84560000000000002</v>
+      </c>
+      <c r="F8">
+        <v>0.84296000000000004</v>
+      </c>
+      <c r="G8">
+        <v>0.82776000000000005</v>
+      </c>
+      <c r="H8">
+        <v>0.83972000000000002</v>
+      </c>
+      <c r="I8">
+        <v>0.8256</v>
+      </c>
+      <c r="J8">
+        <v>0.83198000000000005</v>
+      </c>
+      <c r="K8">
+        <v>0.84708000000000006</v>
+      </c>
+      <c r="L8">
+        <v>0.84116000000000002</v>
+      </c>
+      <c r="M8">
+        <v>0.85116000000000003</v>
+      </c>
+      <c r="N8">
+        <v>0.84874000000000005</v>
+      </c>
+      <c r="O8">
+        <v>0.84219999999999995</v>
+      </c>
+      <c r="P8">
+        <v>0.82784000000000002</v>
+      </c>
+      <c r="Q8">
+        <v>0.84041999999999994</v>
+      </c>
+      <c r="R8">
+        <v>0.81647999999999998</v>
+      </c>
+      <c r="S8">
+        <v>0.81940999999999997</v>
+      </c>
+      <c r="T8">
+        <v>0.84406000000000003</v>
+      </c>
+      <c r="U8">
+        <v>0.84331999999999996</v>
+      </c>
+      <c r="V8">
+        <v>0.85809999999999997</v>
+      </c>
+      <c r="W8">
+        <v>0.85904000000000003</v>
+      </c>
+      <c r="X8">
+        <v>0.83884000000000003</v>
+      </c>
+      <c r="Y8">
+        <v>0.85768</v>
+      </c>
+      <c r="Z8">
+        <v>0.83220000000000005</v>
+      </c>
+      <c r="AA8">
+        <v>0.83275999999999994</v>
+      </c>
+      <c r="AB8">
+        <v>0.84575999999999996</v>
+      </c>
+      <c r="AC8">
+        <v>0.84699000000000002</v>
+      </c>
+      <c r="AD8">
+        <v>0.82667999999999997</v>
+      </c>
+      <c r="AE8">
+        <v>0.86053999999999997</v>
+      </c>
+      <c r="AF8">
+        <v>0.84218000000000004</v>
+      </c>
+      <c r="AG8">
+        <v>0.82618000000000003</v>
+      </c>
+      <c r="AH8">
+        <v>0.82935999999999999</v>
+      </c>
+      <c r="AI8">
+        <v>0.83830000000000005</v>
+      </c>
+      <c r="AJ8">
         <v>0.84209999999999996</v>
       </c>
-      <c r="B3">
-        <v>0.86438000000000004</v>
-      </c>
-      <c r="C3">
-        <v>0.85324</v>
+      <c r="AK8">
+        <v>0.82918000000000003</v>
+      </c>
+      <c r="AL8">
+        <v>0.84208000000000005</v>
+      </c>
+      <c r="AM8">
+        <v>0.83082</v>
+      </c>
+      <c r="AN8">
+        <v>0.82396000000000003</v>
+      </c>
+      <c r="AO8">
+        <v>0.84941999999999995</v>
+      </c>
+      <c r="AP8">
+        <v>0.84414</v>
+      </c>
+      <c r="AQ8">
+        <v>0.83021999999999996</v>
+      </c>
+      <c r="AR8">
+        <v>0.84379999999999999</v>
+      </c>
+      <c r="AS8">
+        <v>0.84863999999999995</v>
+      </c>
+      <c r="AT8">
+        <v>0.85628000000000004</v>
+      </c>
+      <c r="AU8">
+        <v>0.85451999999999995</v>
+      </c>
+      <c r="AV8">
+        <v>0.83309999999999995</v>
+      </c>
+      <c r="AW8">
+        <v>0.84696000000000005</v>
+      </c>
+      <c r="AX8">
+        <v>0.83409999999999995</v>
+      </c>
+      <c r="AY8">
+        <v>0.84421999999999997</v>
+      </c>
+      <c r="AZ8">
+        <v>0.81208000000000002</v>
+      </c>
+      <c r="BA8">
+        <v>0.83186000000000004</v>
+      </c>
+      <c r="BB8">
+        <v>0.84309999999999996</v>
+      </c>
+      <c r="BC8">
+        <v>0.82740000000000002</v>
+      </c>
+      <c r="BD8">
+        <v>0.85318000000000005</v>
+      </c>
+      <c r="BE8">
+        <v>0.80976000000000004</v>
+      </c>
+      <c r="BF8">
+        <v>0.84455999999999998</v>
+      </c>
+      <c r="BG8">
+        <v>0.83030000000000004</v>
+      </c>
+      <c r="BH8">
+        <v>0.82874000000000003</v>
+      </c>
+      <c r="BI8">
+        <v>0.82967999999999997</v>
+      </c>
+      <c r="BJ8">
+        <v>0.83943999999999996</v>
+      </c>
+      <c r="BK8">
+        <v>0.84889999999999999</v>
+      </c>
+      <c r="BL8">
+        <v>0.83657999999999999</v>
+      </c>
+      <c r="BM8">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="BN8">
+        <v>0.82454000000000005</v>
+      </c>
+      <c r="BO8">
+        <v>0.84121999999999997</v>
+      </c>
+      <c r="BP8">
+        <v>0.84111999999999998</v>
+      </c>
+      <c r="BQ8">
+        <v>0.86834</v>
+      </c>
+      <c r="BR8">
+        <v>0.84097999999999995</v>
+      </c>
+      <c r="BS8">
+        <v>0.83592</v>
+      </c>
+      <c r="BT8">
+        <v>0.83020000000000005</v>
+      </c>
+      <c r="BU8">
+        <v>0.84597999999999995</v>
+      </c>
+      <c r="BV8">
+        <v>0.82991999999999999</v>
+      </c>
+      <c r="BW8">
+        <v>0.84867999999999999</v>
+      </c>
+      <c r="BX8">
+        <v>0.82940000000000003</v>
+      </c>
+      <c r="BY8">
+        <v>0.84053999999999995</v>
+      </c>
+      <c r="BZ8">
+        <v>0.86982000000000004</v>
+      </c>
+      <c r="CA8">
+        <v>0.83889999999999998</v>
+      </c>
+      <c r="CB8">
+        <v>0.81257999999999997</v>
+      </c>
+      <c r="CC8">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="CD8">
+        <v>0.84689999999999999</v>
+      </c>
+      <c r="CE8">
+        <v>0.83265999999999996</v>
+      </c>
+      <c r="CF8">
+        <v>0.84463999999999995</v>
+      </c>
+      <c r="CG8">
+        <v>0.83774000000000004</v>
+      </c>
+      <c r="CH8">
+        <v>0.84550000000000003</v>
+      </c>
+      <c r="CI8">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="CJ8">
+        <v>0.85568</v>
+      </c>
+      <c r="CK8">
+        <v>0.83884000000000003</v>
+      </c>
+      <c r="CL8">
+        <v>0.80640000000000001</v>
+      </c>
+      <c r="CM8">
+        <v>0.84687999999999997</v>
+      </c>
+      <c r="CN8">
+        <v>0.84426000000000001</v>
+      </c>
+      <c r="CO8">
+        <v>0.87021999999999999</v>
+      </c>
+      <c r="CP8">
+        <v>0.86265999999999998</v>
+      </c>
+      <c r="CQ8">
+        <v>0.84167999999999998</v>
+      </c>
+      <c r="CR8">
+        <v>0.85077999999999998</v>
+      </c>
+      <c r="CS8">
+        <v>0.82576000000000005</v>
+      </c>
+      <c r="CT8">
+        <v>0.83440000000000003</v>
+      </c>
+      <c r="CU8">
+        <v>0.84123999999999999</v>
+      </c>
+      <c r="CV8">
+        <v>0.84360000000000002</v>
+      </c>
+      <c r="CW8">
+        <v>0.83983980000000036</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.82494000000000001</v>
-      </c>
-      <c r="B4">
-        <v>0.87375999999999998</v>
-      </c>
-      <c r="C4">
-        <v>0.84935000000000005</v>
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.85753999999999997</v>
+      </c>
+      <c r="B9">
+        <v>0.84543999999999997</v>
+      </c>
+      <c r="C9">
+        <v>0.84970000000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.85218000000000005</v>
+      </c>
+      <c r="E9">
+        <v>0.82664000000000004</v>
+      </c>
+      <c r="F9">
+        <v>0.83004</v>
+      </c>
+      <c r="G9">
+        <v>0.84160000000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.82625999999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.86004000000000003</v>
+      </c>
+      <c r="J9">
+        <v>0.82594000000000001</v>
+      </c>
+      <c r="K9">
+        <v>0.85074000000000005</v>
+      </c>
+      <c r="L9">
+        <v>0.84806000000000004</v>
+      </c>
+      <c r="M9">
+        <v>0.82</v>
+      </c>
+      <c r="N9">
+        <v>0.83896000000000004</v>
+      </c>
+      <c r="O9">
+        <v>0.85207999999999995</v>
+      </c>
+      <c r="P9">
+        <v>0.82969999999999999</v>
+      </c>
+      <c r="Q9">
+        <v>0.86119999999999997</v>
+      </c>
+      <c r="R9">
+        <v>0.84867999999999999</v>
+      </c>
+      <c r="S9">
+        <v>0.84297999999999995</v>
+      </c>
+      <c r="T9">
+        <v>0.85584000000000005</v>
+      </c>
+      <c r="U9">
+        <v>0.83718000000000004</v>
+      </c>
+      <c r="V9">
+        <v>0.83584000000000003</v>
+      </c>
+      <c r="W9">
+        <v>0.85465999999999998</v>
+      </c>
+      <c r="X9">
+        <v>0.83872000000000002</v>
+      </c>
+      <c r="Y9">
+        <v>0.85641999999999996</v>
+      </c>
+      <c r="Z9">
+        <v>0.82879999999999998</v>
+      </c>
+      <c r="AA9">
+        <v>0.86206000000000005</v>
+      </c>
+      <c r="AB9">
+        <v>0.85928000000000004</v>
+      </c>
+      <c r="AC9">
+        <v>0.84748000000000001</v>
+      </c>
+      <c r="AD9">
+        <v>0.85814000000000001</v>
+      </c>
+      <c r="AE9">
+        <v>0.83752000000000004</v>
+      </c>
+      <c r="AF9">
+        <v>0.85450000000000004</v>
+      </c>
+      <c r="AG9">
+        <v>0.85265999999999997</v>
+      </c>
+      <c r="AH9">
+        <v>0.85841999999999996</v>
+      </c>
+      <c r="AI9">
+        <v>0.85174000000000005</v>
+      </c>
+      <c r="AJ9">
+        <v>0.84870000000000001</v>
+      </c>
+      <c r="AK9">
+        <v>0.83626</v>
+      </c>
+      <c r="AL9">
+        <v>0.83819999999999995</v>
+      </c>
+      <c r="AM9">
+        <v>0.84777999999999998</v>
+      </c>
+      <c r="AN9">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="AO9">
+        <v>0.85541999999999996</v>
+      </c>
+      <c r="AP9">
+        <v>0.84097999999999995</v>
+      </c>
+      <c r="AQ9">
+        <v>0.84109999999999996</v>
+      </c>
+      <c r="AR9">
+        <v>0.83867999999999998</v>
+      </c>
+      <c r="AS9">
+        <v>0.85533999999999999</v>
+      </c>
+      <c r="AT9">
+        <v>0.8306</v>
+      </c>
+      <c r="AU9">
+        <v>0.84643000000000002</v>
+      </c>
+      <c r="AV9">
+        <v>0.85458000000000001</v>
+      </c>
+      <c r="AW9">
+        <v>0.83704000000000001</v>
+      </c>
+      <c r="AX9">
+        <v>0.83575999999999995</v>
+      </c>
+      <c r="AY9">
+        <v>0.82843999999999995</v>
+      </c>
+      <c r="AZ9">
+        <v>0.83045999999999998</v>
+      </c>
+      <c r="BA9">
+        <v>0.84296000000000004</v>
+      </c>
+      <c r="BB9">
+        <v>0.84814000000000001</v>
+      </c>
+      <c r="BC9">
+        <v>0.85128000000000004</v>
+      </c>
+      <c r="BD9">
+        <v>0.84743999999999997</v>
+      </c>
+      <c r="BE9">
+        <v>0.85214000000000001</v>
+      </c>
+      <c r="BF9">
+        <v>0.84697999999999996</v>
+      </c>
+      <c r="BG9">
+        <v>0.84133999999999998</v>
+      </c>
+      <c r="BH9">
+        <v>0.85982000000000003</v>
+      </c>
+      <c r="BI9">
+        <v>0.84419999999999995</v>
+      </c>
+      <c r="BJ9">
+        <v>0.85431999999999997</v>
+      </c>
+      <c r="BK9">
+        <v>0.85614000000000001</v>
+      </c>
+      <c r="BL9">
+        <v>0.84343999999999997</v>
+      </c>
+      <c r="BM9">
+        <v>0.82435999999999998</v>
+      </c>
+      <c r="BN9">
+        <v>0.84433999999999998</v>
+      </c>
+      <c r="BO9">
+        <v>0.81950000000000001</v>
+      </c>
+      <c r="BP9">
+        <v>0.83604000000000001</v>
+      </c>
+      <c r="BQ9">
+        <v>0.84711999999999998</v>
+      </c>
+      <c r="BR9">
+        <v>0.84106000000000003</v>
+      </c>
+      <c r="BS9">
+        <v>0.83496000000000004</v>
+      </c>
+      <c r="BT9">
+        <v>0.83375999999999995</v>
+      </c>
+      <c r="BU9">
+        <v>0.8589</v>
+      </c>
+      <c r="BV9">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="BW9">
+        <v>0.83516000000000001</v>
+      </c>
+      <c r="BX9">
+        <v>0.85780000000000001</v>
+      </c>
+      <c r="BY9">
+        <v>0.82864000000000004</v>
+      </c>
+      <c r="BZ9">
+        <v>0.83164000000000005</v>
+      </c>
+      <c r="CA9">
+        <v>0.85184000000000004</v>
+      </c>
+      <c r="CB9">
+        <v>0.84167999999999998</v>
+      </c>
+      <c r="CC9">
+        <v>0.82174000000000003</v>
+      </c>
+      <c r="CD9">
+        <v>0.82564000000000004</v>
+      </c>
+      <c r="CE9">
+        <v>0.85509999999999997</v>
+      </c>
+      <c r="CF9">
+        <v>0.83887999999999996</v>
+      </c>
+      <c r="CG9">
+        <v>0.83052000000000004</v>
+      </c>
+      <c r="CH9">
+        <v>0.83006000000000002</v>
+      </c>
+      <c r="CI9">
+        <v>0.82165999999999995</v>
+      </c>
+      <c r="CJ9">
+        <v>0.83072000000000001</v>
+      </c>
+      <c r="CK9">
+        <v>0.83908000000000005</v>
+      </c>
+      <c r="CL9">
+        <v>0.82564000000000004</v>
+      </c>
+      <c r="CM9">
+        <v>0.83277999999999996</v>
+      </c>
+      <c r="CN9">
+        <v>0.86360000000000003</v>
+      </c>
+      <c r="CO9">
+        <v>0.84197999999999995</v>
+      </c>
+      <c r="CP9">
+        <v>0.82998000000000005</v>
+      </c>
+      <c r="CQ9">
+        <v>0.82862000000000002</v>
+      </c>
+      <c r="CR9">
+        <v>0.83240000000000003</v>
+      </c>
+      <c r="CS9">
+        <v>0.83892</v>
+      </c>
+      <c r="CT9">
+        <v>0.86048000000000002</v>
+      </c>
+      <c r="CU9">
+        <v>0.83955999999999997</v>
+      </c>
+      <c r="CV9">
+        <v>0.84514</v>
+      </c>
+      <c r="CW9">
+        <v>0.84267310000000029</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.85485999999999995</v>
-      </c>
-      <c r="B5">
-        <v>0.85328000000000004</v>
-      </c>
-      <c r="C5">
-        <v>0.85407</v>
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.84286000000000005</v>
+      </c>
+      <c r="B10">
+        <v>0.84933999999999998</v>
+      </c>
+      <c r="C10">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="D10">
+        <v>0.83242000000000005</v>
+      </c>
+      <c r="E10">
+        <v>0.82774000000000003</v>
+      </c>
+      <c r="F10">
+        <v>0.85353999999999997</v>
+      </c>
+      <c r="G10">
+        <v>0.83428000000000002</v>
+      </c>
+      <c r="H10">
+        <v>0.81589999999999996</v>
+      </c>
+      <c r="I10">
+        <v>0.85277999999999998</v>
+      </c>
+      <c r="J10">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="K10">
+        <v>0.84494000000000002</v>
+      </c>
+      <c r="L10">
+        <v>0.83623999999999998</v>
+      </c>
+      <c r="M10">
+        <v>0.83882000000000001</v>
+      </c>
+      <c r="N10">
+        <v>0.8286</v>
+      </c>
+      <c r="O10">
+        <v>0.84284000000000003</v>
+      </c>
+      <c r="P10">
+        <v>0.83877999999999997</v>
+      </c>
+      <c r="Q10">
+        <v>0.83255999999999997</v>
+      </c>
+      <c r="R10">
+        <v>0.83257999999999999</v>
+      </c>
+      <c r="S10">
+        <v>0.83252000000000004</v>
+      </c>
+      <c r="T10">
+        <v>0.82655999999999996</v>
+      </c>
+      <c r="U10">
+        <v>0.83004</v>
+      </c>
+      <c r="V10">
+        <v>0.82291999999999998</v>
+      </c>
+      <c r="W10">
+        <v>0.81938</v>
+      </c>
+      <c r="X10">
+        <v>0.83662000000000003</v>
+      </c>
+      <c r="Y10">
+        <v>0.84289999999999998</v>
+      </c>
+      <c r="Z10">
+        <v>0.84960000000000002</v>
+      </c>
+      <c r="AA10">
+        <v>0.83355999999999997</v>
+      </c>
+      <c r="AB10">
+        <v>0.83616000000000001</v>
+      </c>
+      <c r="AC10">
+        <v>0.85204000000000002</v>
+      </c>
+      <c r="AD10">
+        <v>0.84055999999999997</v>
+      </c>
+      <c r="AE10">
+        <v>0.84463999999999995</v>
+      </c>
+      <c r="AF10">
+        <v>0.84508000000000005</v>
+      </c>
+      <c r="AG10">
+        <v>0.84872000000000003</v>
+      </c>
+      <c r="AH10">
+        <v>0.8407</v>
+      </c>
+      <c r="AI10">
+        <v>0.85433999999999999</v>
+      </c>
+      <c r="AJ10">
+        <v>0.84836</v>
+      </c>
+      <c r="AK10">
+        <v>0.82365999999999995</v>
+      </c>
+      <c r="AL10">
+        <v>0.83940000000000003</v>
+      </c>
+      <c r="AM10">
+        <v>0.81521999999999994</v>
+      </c>
+      <c r="AN10">
+        <v>0.83165999999999995</v>
+      </c>
+      <c r="AO10">
+        <v>0.85350000000000004</v>
+      </c>
+      <c r="AP10">
+        <v>0.80703999999999998</v>
+      </c>
+      <c r="AQ10">
+        <v>0.84165999999999996</v>
+      </c>
+      <c r="AR10">
+        <v>0.83284000000000002</v>
+      </c>
+      <c r="AS10">
+        <v>0.81447999999999998</v>
+      </c>
+      <c r="AT10">
+        <v>0.82201999999999997</v>
+      </c>
+      <c r="AU10">
+        <v>0.85026000000000002</v>
+      </c>
+      <c r="AV10">
+        <v>0.83538000000000001</v>
+      </c>
+      <c r="AW10">
+        <v>0.82911999999999997</v>
+      </c>
+      <c r="AX10">
+        <v>0.84404000000000001</v>
+      </c>
+      <c r="AY10">
+        <v>0.80528</v>
+      </c>
+      <c r="AZ10">
+        <v>0.83704000000000001</v>
+      </c>
+      <c r="BA10">
+        <v>0.83213999999999999</v>
+      </c>
+      <c r="BB10">
+        <v>0.86292000000000002</v>
+      </c>
+      <c r="BC10">
+        <v>0.85196000000000005</v>
+      </c>
+      <c r="BD10">
+        <v>0.83789999999999998</v>
+      </c>
+      <c r="BE10">
+        <v>0.84550999999999998</v>
+      </c>
+      <c r="BF10">
+        <v>0.82291999999999998</v>
+      </c>
+      <c r="BG10">
+        <v>0.84301999999999999</v>
+      </c>
+      <c r="BH10">
+        <v>0.84382000000000001</v>
+      </c>
+      <c r="BI10">
+        <v>0.85055999999999998</v>
+      </c>
+      <c r="BJ10">
+        <v>0.83152000000000004</v>
+      </c>
+      <c r="BK10">
+        <v>0.85292000000000001</v>
+      </c>
+      <c r="BL10">
+        <v>0.81386000000000003</v>
+      </c>
+      <c r="BM10">
+        <v>0.83674000000000004</v>
+      </c>
+      <c r="BN10">
+        <v>0.85611999999999999</v>
+      </c>
+      <c r="BO10">
+        <v>0.81394</v>
+      </c>
+      <c r="BP10">
+        <v>0.83</v>
+      </c>
+      <c r="BQ10">
+        <v>0.85606000000000004</v>
+      </c>
+      <c r="BR10">
+        <v>0.83479999999999999</v>
+      </c>
+      <c r="BS10">
+        <v>0.86268</v>
+      </c>
+      <c r="BT10">
+        <v>0.82684000000000002</v>
+      </c>
+      <c r="BU10">
+        <v>0.82845999999999997</v>
+      </c>
+      <c r="BV10">
+        <v>0.84462000000000004</v>
+      </c>
+      <c r="BW10">
+        <v>0.83696000000000004</v>
+      </c>
+      <c r="BX10">
+        <v>0.84111999999999998</v>
+      </c>
+      <c r="BY10">
+        <v>0.84016000000000002</v>
+      </c>
+      <c r="BZ10">
+        <v>0.84243999999999997</v>
+      </c>
+      <c r="CA10">
+        <v>0.82942000000000005</v>
+      </c>
+      <c r="CB10">
+        <v>0.84167999999999998</v>
+      </c>
+      <c r="CC10">
+        <v>0.85365999999999997</v>
+      </c>
+      <c r="CD10">
+        <v>0.84416000000000002</v>
+      </c>
+      <c r="CE10">
+        <v>0.83740000000000003</v>
+      </c>
+      <c r="CF10">
+        <v>0.81806000000000001</v>
+      </c>
+      <c r="CG10">
+        <v>0.85314000000000001</v>
+      </c>
+      <c r="CH10">
+        <v>0.83952000000000004</v>
+      </c>
+      <c r="CI10">
+        <v>0.81630000000000003</v>
+      </c>
+      <c r="CJ10">
+        <v>0.83716000000000002</v>
+      </c>
+      <c r="CK10">
+        <v>0.84706000000000004</v>
+      </c>
+      <c r="CL10">
+        <v>0.84684000000000004</v>
+      </c>
+      <c r="CM10">
+        <v>0.86643999999999999</v>
+      </c>
+      <c r="CN10">
+        <v>0.82403999999999999</v>
+      </c>
+      <c r="CO10">
+        <v>0.86429999999999996</v>
+      </c>
+      <c r="CP10">
+        <v>0.82647999999999999</v>
+      </c>
+      <c r="CQ10">
+        <v>0.85941999999999996</v>
+      </c>
+      <c r="CR10">
+        <v>0.8407</v>
+      </c>
+      <c r="CS10">
+        <v>0.84252000000000005</v>
+      </c>
+      <c r="CT10">
+        <v>0.84021999999999997</v>
+      </c>
+      <c r="CU10">
+        <v>0.83996000000000004</v>
+      </c>
+      <c r="CV10">
+        <v>0.85285999999999995</v>
+      </c>
+      <c r="CW10">
+        <v>0.83840849999999978</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="B6">
-        <v>0.84641999999999995</v>
-      </c>
-      <c r="C6">
-        <v>0.84721000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.83843999999999996</v>
-      </c>
-      <c r="B7">
-        <v>0.84265999999999996</v>
-      </c>
-      <c r="C7">
-        <v>0.84054999999999991</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.83797999999999995</v>
-      </c>
-      <c r="B8">
-        <v>0.83016000000000001</v>
-      </c>
-      <c r="C8">
-        <v>0.83406999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.83177999999999996</v>
-      </c>
-      <c r="B9">
-        <v>0.86062000000000005</v>
-      </c>
-      <c r="C9">
-        <v>0.84620000000000006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.81528</v>
-      </c>
-      <c r="B10">
-        <v>0.84574000000000005</v>
-      </c>
-      <c r="C10">
-        <v>0.83051000000000008</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.85994000000000004</v>
+        <v>0.83992</v>
       </c>
       <c r="B11">
-        <v>0.84619999999999995</v>
+        <v>0.85565999999999998</v>
       </c>
       <c r="C11">
-        <v>0.85306999999999999</v>
+        <v>0.83930000000000005</v>
+      </c>
+      <c r="D11">
+        <v>0.84702</v>
+      </c>
+      <c r="E11">
+        <v>0.83540000000000003</v>
+      </c>
+      <c r="F11">
+        <v>0.82796000000000003</v>
+      </c>
+      <c r="G11">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="H11">
+        <v>0.8448</v>
+      </c>
+      <c r="I11">
+        <v>0.83945999999999998</v>
+      </c>
+      <c r="J11">
+        <v>0.81857999999999997</v>
+      </c>
+      <c r="K11">
+        <v>0.83760000000000001</v>
+      </c>
+      <c r="L11">
+        <v>0.83067999999999997</v>
+      </c>
+      <c r="M11">
+        <v>0.83031999999999995</v>
+      </c>
+      <c r="N11">
+        <v>0.82176000000000005</v>
+      </c>
+      <c r="O11">
+        <v>0.84753999999999996</v>
+      </c>
+      <c r="P11">
+        <v>0.85006000000000004</v>
+      </c>
+      <c r="Q11">
+        <v>0.84396000000000004</v>
+      </c>
+      <c r="R11">
+        <v>0.84633999999999998</v>
+      </c>
+      <c r="S11">
+        <v>0.83006000000000002</v>
+      </c>
+      <c r="T11">
+        <v>0.82333999999999996</v>
+      </c>
+      <c r="U11">
+        <v>0.83553999999999995</v>
+      </c>
+      <c r="V11">
+        <v>0.81816</v>
+      </c>
+      <c r="W11">
+        <v>0.81166000000000005</v>
+      </c>
+      <c r="X11">
+        <v>0.82711999999999997</v>
+      </c>
+      <c r="Y11">
+        <v>0.86085999999999996</v>
+      </c>
+      <c r="Z11">
+        <v>0.83552000000000004</v>
+      </c>
+      <c r="AA11">
+        <v>0.8337</v>
+      </c>
+      <c r="AB11">
+        <v>0.82640000000000002</v>
+      </c>
+      <c r="AC11">
+        <v>0.84245999999999999</v>
+      </c>
+      <c r="AD11">
+        <v>0.83435999999999999</v>
+      </c>
+      <c r="AE11">
+        <v>0.85052000000000005</v>
+      </c>
+      <c r="AF11">
+        <v>0.83306000000000002</v>
+      </c>
+      <c r="AG11">
+        <v>0.83196000000000003</v>
+      </c>
+      <c r="AH11">
+        <v>0.83728000000000002</v>
+      </c>
+      <c r="AI11">
+        <v>0.82296000000000002</v>
+      </c>
+      <c r="AJ11">
+        <v>0.81820000000000004</v>
+      </c>
+      <c r="AK11">
+        <v>0.84585999999999995</v>
+      </c>
+      <c r="AL11">
+        <v>0.83384000000000003</v>
+      </c>
+      <c r="AM11">
+        <v>0.82948</v>
+      </c>
+      <c r="AN11">
+        <v>0.80481999999999998</v>
+      </c>
+      <c r="AO11">
+        <v>0.82628000000000001</v>
+      </c>
+      <c r="AP11">
+        <v>0.82172000000000001</v>
+      </c>
+      <c r="AQ11">
+        <v>0.82513999999999998</v>
+      </c>
+      <c r="AR11">
+        <v>0.84409999999999996</v>
+      </c>
+      <c r="AS11">
+        <v>0.82596000000000003</v>
+      </c>
+      <c r="AT11">
+        <v>0.83291999999999999</v>
+      </c>
+      <c r="AU11">
+        <v>0.87197999999999998</v>
+      </c>
+      <c r="AV11">
+        <v>0.85995999999999995</v>
+      </c>
+      <c r="AW11">
+        <v>0.85419999999999996</v>
+      </c>
+      <c r="AX11">
+        <v>0.82145999999999997</v>
+      </c>
+      <c r="AY11">
+        <v>0.83118000000000003</v>
+      </c>
+      <c r="AZ11">
+        <v>0.85833999999999999</v>
+      </c>
+      <c r="BA11">
+        <v>0.81943999999999995</v>
+      </c>
+      <c r="BB11">
+        <v>0.82952000000000004</v>
+      </c>
+      <c r="BC11">
+        <v>0.83101999999999998</v>
+      </c>
+      <c r="BD11">
+        <v>0.82521999999999995</v>
+      </c>
+      <c r="BE11">
+        <v>0.83872000000000002</v>
+      </c>
+      <c r="BF11">
+        <v>0.84358</v>
+      </c>
+      <c r="BG11">
+        <v>0.84423999999999999</v>
+      </c>
+      <c r="BH11">
+        <v>0.82284000000000002</v>
+      </c>
+      <c r="BI11">
+        <v>0.85326000000000002</v>
+      </c>
+      <c r="BJ11">
+        <v>0.84606000000000003</v>
+      </c>
+      <c r="BK11">
+        <v>0.82896000000000003</v>
+      </c>
+      <c r="BL11">
+        <v>0.84892000000000001</v>
+      </c>
+      <c r="BM11">
+        <v>0.83906000000000003</v>
+      </c>
+      <c r="BN11">
+        <v>0.82706000000000002</v>
+      </c>
+      <c r="BO11">
+        <v>0.84914000000000001</v>
+      </c>
+      <c r="BP11">
+        <v>0.80852000000000002</v>
+      </c>
+      <c r="BQ11">
+        <v>0.82242000000000004</v>
+      </c>
+      <c r="BR11">
+        <v>0.83601999999999999</v>
+      </c>
+      <c r="BS11">
+        <v>0.83509999999999995</v>
+      </c>
+      <c r="BT11">
+        <v>0.82238</v>
+      </c>
+      <c r="BU11">
+        <v>0.82377999999999996</v>
+      </c>
+      <c r="BV11">
+        <v>0.85506000000000004</v>
+      </c>
+      <c r="BW11">
+        <v>0.83582000000000001</v>
+      </c>
+      <c r="BX11">
+        <v>0.84770000000000001</v>
+      </c>
+      <c r="BY11">
+        <v>0.84272000000000002</v>
+      </c>
+      <c r="BZ11">
+        <v>0.82528000000000001</v>
+      </c>
+      <c r="CA11">
+        <v>0.85033999999999998</v>
+      </c>
+      <c r="CB11">
+        <v>0.84428000000000003</v>
+      </c>
+      <c r="CC11">
+        <v>0.82221999999999995</v>
+      </c>
+      <c r="CD11">
+        <v>0.83711999999999998</v>
+      </c>
+      <c r="CE11">
+        <v>0.84331999999999996</v>
+      </c>
+      <c r="CF11">
+        <v>0.84885999999999995</v>
+      </c>
+      <c r="CG11">
+        <v>0.82345999999999997</v>
+      </c>
+      <c r="CH11">
+        <v>0.82867999999999997</v>
+      </c>
+      <c r="CI11">
+        <v>0.84416000000000002</v>
+      </c>
+      <c r="CJ11">
+        <v>0.83467999999999998</v>
+      </c>
+      <c r="CK11">
+        <v>0.85363999999999995</v>
+      </c>
+      <c r="CL11">
+        <v>0.84906000000000004</v>
+      </c>
+      <c r="CM11">
+        <v>0.85231999999999997</v>
+      </c>
+      <c r="CN11">
+        <v>0.85107999999999995</v>
+      </c>
+      <c r="CO11">
+        <v>0.84663999999999995</v>
+      </c>
+      <c r="CP11">
+        <v>0.83738000000000001</v>
+      </c>
+      <c r="CQ11">
+        <v>0.83782000000000001</v>
+      </c>
+      <c r="CR11">
+        <v>0.86907999999999996</v>
+      </c>
+      <c r="CS11">
+        <v>0.84914000000000001</v>
+      </c>
+      <c r="CT11">
+        <v>0.86019999999999996</v>
+      </c>
+      <c r="CU11">
+        <v>0.83040000000000003</v>
+      </c>
+      <c r="CV11">
+        <v>0.86987999999999999</v>
+      </c>
+      <c r="CW11">
+        <v>0.83751360000000008</v>
       </c>
     </row>
   </sheetData>
